--- a/VPB/KQKD.xlsx
+++ b/VPB/KQKD.xlsx
@@ -1659,257 +1659,257 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2711</t>
+          <t>2711022</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2341</t>
+          <t>2341222</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2637</t>
+          <t>2636554</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2458</t>
+          <t>2457627</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2616</t>
+          <t>2616091</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2905</t>
+          <t>2904700</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2915</t>
+          <t>2915466</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2814</t>
+          <t>2814452</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>3747</t>
+          <t>3747469</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>3992</t>
+          <t>3991941</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>4370</t>
+          <t>4369753</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>5102</t>
+          <t>5101695</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>5349</t>
+          <t>5349319</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>5776</t>
+          <t>5776036</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>5990</t>
+          <t>5990042</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>6409545</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>7404</t>
+          <t>7403640</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>7983</t>
+          <t>7983474</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>8123</t>
+          <t>8122773</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>8857</t>
+          <t>8856646</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>9168</t>
+          <t>9167841</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>9730</t>
+          <t>9730236</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>9996</t>
+          <t>9995549</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>9955</t>
+          <t>9954793</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>10600</t>
+          <t>10599636</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>11377</t>
+          <t>11377003</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12114</t>
+          <t>12113542</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>12969</t>
+          <t>12969112</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>13237</t>
+          <t>13237012</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>13248</t>
+          <t>13247863</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>12882</t>
+          <t>12881819</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>12884</t>
+          <t>12883536</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>13349</t>
+          <t>13348549</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>13338</t>
+          <t>13338246</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>13486</t>
+          <t>13486135</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>11505</t>
+          <t>11504643</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>12498</t>
+          <t>12498074</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>14239</t>
+          <t>14239240</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>15447</t>
+          <t>15446690</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>15858</t>
+          <t>15858353</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>16656</t>
+          <t>16655830</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>18029</t>
+          <t>18028502</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>18775</t>
+          <t>18774908</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>19323</t>
+          <t>19323045</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>20431</t>
+          <t>20430922</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>19346</t>
+          <t>19345927</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>19757</t>
+          <t>19757425</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>19607</t>
+          <t>19607046</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>21401</t>
+          <t>21401247</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>22184</t>
+          <t>22184295</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>23430</t>
+          <t>23429748</t>
         </is>
       </c>
     </row>
@@ -1921,257 +1921,257 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2310</t>
+          <t>2309580</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1614</t>
+          <t>1614180</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1756</t>
+          <t>1755588</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1753</t>
+          <t>1752535</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1666</t>
+          <t>1666356</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1737</t>
+          <t>1737253</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1679</t>
+          <t>1679223</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1716</t>
+          <t>1715780</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1981</t>
+          <t>1980875</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1923</t>
+          <t>1922888</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>1977085</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2212</t>
+          <t>2212296</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2293</t>
+          <t>2293095</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2457</t>
+          <t>2457301</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2495</t>
+          <t>2494729</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2627</t>
+          <t>2627247</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>2884</t>
+          <t>2883980</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>3154</t>
+          <t>3154396</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>3370</t>
+          <t>3370228</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>3494</t>
+          <t>3494127</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>3487</t>
+          <t>3487306</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>3703</t>
+          <t>3703320</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>3836</t>
+          <t>3835955</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>3952</t>
+          <t>3952380</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>4087</t>
+          <t>4086985</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>4592</t>
+          <t>4591551</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>4687</t>
+          <t>4687148</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>4992</t>
+          <t>4992145</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>5173</t>
+          <t>5172944</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>5227</t>
+          <t>5226685</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>5181</t>
+          <t>5181017</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>4999691</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>4609</t>
+          <t>4608551</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>4218</t>
+          <t>4218355</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>4254</t>
+          <t>4254299</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4030411</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>3975</t>
+          <t>3975204</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>4352</t>
+          <t>4351526</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>4981</t>
+          <t>4981037</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>5473</t>
+          <t>5473452</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>6373</t>
+          <t>6373177</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>8495</t>
+          <t>8494563</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>10013</t>
+          <t>10012755</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>10486</t>
+          <t>10486297</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>9389</t>
+          <t>9389086</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>8023</t>
+          <t>8022529</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>7349</t>
+          <t>7349185</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>7451</t>
+          <t>7451274</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>8208</t>
+          <t>8208250</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>8829</t>
+          <t>8828531</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>9978</t>
+          <t>9977956</t>
         </is>
       </c>
     </row>
@@ -2183,257 +2183,257 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>401441</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>727043</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>881</t>
+          <t>880966</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>705092</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>950</t>
+          <t>949735</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>1167447</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1236</t>
+          <t>1236243</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1099</t>
+          <t>1098672</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1767</t>
+          <t>1766594</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2069</t>
+          <t>2069053</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2393</t>
+          <t>2392668</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2889</t>
+          <t>2889399</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>3056</t>
+          <t>3056224</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>3319</t>
+          <t>3318735</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>3495</t>
+          <t>3495313</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>3782</t>
+          <t>3782298</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>4520</t>
+          <t>4519660</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>4829</t>
+          <t>4829078</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>4753</t>
+          <t>4752545</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>5363</t>
+          <t>5362519</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>5681</t>
+          <t>5680535</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>6027</t>
+          <t>6026916</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>6160</t>
+          <t>6159594</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>6002</t>
+          <t>6002414</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>6513</t>
+          <t>6512651</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>6785</t>
+          <t>6785452</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>7426</t>
+          <t>7426394</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>7977</t>
+          <t>7976967</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>8064</t>
+          <t>8064068</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>8021</t>
+          <t>8021178</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>7701</t>
+          <t>7700803</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>7884</t>
+          <t>7883845</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>8740</t>
+          <t>8739998</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>9120</t>
+          <t>9119891</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>9232</t>
+          <t>9231836</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>7474</t>
+          <t>7474232</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>8523</t>
+          <t>8522870</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>9888</t>
+          <t>9887714</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>10466</t>
+          <t>10465653</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>10385</t>
+          <t>10384901</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>10283</t>
+          <t>10282653</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>9534</t>
+          <t>9533939</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>8762</t>
+          <t>8762153</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>8837</t>
+          <t>8836748</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>11042</t>
+          <t>11041836</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>11323</t>
+          <t>11323398</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>12408</t>
+          <t>12408240</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>12156</t>
+          <t>12155772</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>13193</t>
+          <t>13192997</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>13356</t>
+          <t>13355764</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>13452</t>
+          <t>13451792</t>
         </is>
       </c>
     </row>
@@ -2445,257 +2445,257 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>191559</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>168049</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>255460</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>148834</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>225098</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>163683</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>201021</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>253388</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>362150</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>271913</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>366292</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>444460</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>513344</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>432912</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>450950</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>534264</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>691082</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>648109</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>732402</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>878336</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>951</t>
+          <t>951224</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>869636</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>827762</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>977</t>
+          <t>977208</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>1144</t>
+          <t>1144191</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>1130</t>
+          <t>1130352</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>1357</t>
+          <t>1356598</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>1460</t>
+          <t>1459510</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>1719</t>
+          <t>1719121</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>1439</t>
+          <t>1439264</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>1402594</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>1606</t>
+          <t>1605722</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>1719</t>
+          <t>1719173</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1630</t>
+          <t>1629959</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>1716</t>
+          <t>1716381</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>1472</t>
+          <t>1472398</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>2065</t>
+          <t>2065323</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2099591</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>2450690</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>2793</t>
+          <t>2793120</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>3112</t>
+          <t>3112294</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>2786</t>
+          <t>2786451</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>2831</t>
+          <t>2830715</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>3003</t>
+          <t>3002653</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>3567</t>
+          <t>3566973</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>3162</t>
+          <t>3161701</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>3653</t>
+          <t>3652901</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>2866</t>
+          <t>2866247</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>3521</t>
+          <t>3520835</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>2877</t>
+          <t>2877390</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>3305</t>
+          <t>3305471</t>
         </is>
       </c>
     </row>
@@ -2707,257 +2707,257 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>81495</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52813</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>64025</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>69524</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>74791</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>60911</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>69638</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>76278</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>146592</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>122376</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>209224</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>181933</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>219582</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>258901</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>281609</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>321256</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>400969</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>343138</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>404557</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>475447</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>538276</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>555159</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>538005</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>577405</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>535732</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>385442</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>643932</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>751</t>
+          <t>750986</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>691550</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>744</t>
+          <t>744113</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>715181</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>665201</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>686132</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>642473</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>631</t>
+          <t>631456</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>681854</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>869</t>
+          <t>869247</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>850372</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>912683</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1024</t>
+          <t>1023664</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>1231</t>
+          <t>1231147</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>1118</t>
+          <t>1118097</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>1174</t>
+          <t>1173673</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>1113</t>
+          <t>1113292</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>1686</t>
+          <t>1685905</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>1608</t>
+          <t>1607870</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>1772</t>
+          <t>1772310</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>1719</t>
+          <t>1718682</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>1978945</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>1709</t>
+          <t>1708591</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>1935</t>
+          <t>1935445</t>
         </is>
       </c>
     </row>
@@ -2969,257 +2969,257 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>110063</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>115235</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>191435</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>79310</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>150307</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>102772</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>131383</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>177110</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>215558</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>149537</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>157068</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>262527</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>293762</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>174011</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>169341</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>213008</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>290113</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>304971</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>327845</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>402889</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>412948</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>314477</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>289757</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>399803</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>608459</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>745</t>
+          <t>744910</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>712666</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>709</t>
+          <t>708524</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>1028</t>
+          <t>1027571</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>695151</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>687413</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>940521</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>1033041</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>987</t>
+          <t>987486</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>1085</t>
+          <t>1084925</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>791</t>
+          <t>790544</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>1196</t>
+          <t>1196076</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>1249</t>
+          <t>1249219</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>1538</t>
+          <t>1538007</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>1769</t>
+          <t>1769456</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>1881</t>
+          <t>1881147</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>1668</t>
+          <t>1668354</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>1657</t>
+          <t>1657042</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>1889</t>
+          <t>1889361</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>1881</t>
+          <t>1881068</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>1554</t>
+          <t>1553831</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>1881</t>
+          <t>1880591</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>1147565</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>1542</t>
+          <t>1541890</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>1169</t>
+          <t>1168799</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>1370</t>
+          <t>1370026</t>
         </is>
       </c>
     </row>
@@ -3231,257 +3231,257 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-15479</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-10607</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-111</t>
+          <t>-111051</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-3287</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>7473</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>-24655</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>-33</t>
+          <t>-32811</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>738</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>-33</t>
+          <t>-33177</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>-138</t>
+          <t>-137787</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>-32105</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>77868</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>-198</t>
+          <t>-198442</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3046</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>-122</t>
+          <t>-121573</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-106</t>
+          <t>-106044</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>-120</t>
+          <t>-120252</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>-14494</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-28365</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-66</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>-116</t>
+          <t>-115916</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>-19510</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52909</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>217852</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>-355</t>
+          <t>-355000</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>-37</t>
+          <t>-37362</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1382</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>-81</t>
+          <t>-81416</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>-99</t>
+          <t>-99483</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-538</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>-93</t>
+          <t>-92621</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>-127</t>
+          <t>-126783</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>-87</t>
+          <t>-87266</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>-44</t>
+          <t>-43525</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>7087</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-9619</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>-30</t>
+          <t>-30337</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>-83</t>
+          <t>-82911</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>-167</t>
+          <t>-166609</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>-29</t>
+          <t>-28551</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>-340</t>
+          <t>-339979</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>-347</t>
+          <t>-346630</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>-211</t>
+          <t>-210616</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>-64</t>
+          <t>-63648</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>-185</t>
+          <t>-185079</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>304172</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>193939</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>96258</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>232871</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>119466</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>93240</t>
         </is>
       </c>
     </row>
@@ -3493,257 +3493,257 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>64003</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9219</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38728</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12037</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>36322</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10655</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2706</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-1985</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>-14243</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16818</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-5765</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-930</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>33357</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-28423</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>-56</t>
+          <t>-55779</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3401</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>-69</t>
+          <t>-68583</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4501</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>32118</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>84818</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>58201</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29891</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>-112</t>
+          <t>-112460</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41825</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-16077</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2526</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53684</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>145459</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>83178</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>218330</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16699</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-4644</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-3919</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>-50</t>
+          <t>-49977</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>56343</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-11009</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13522</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>-66</t>
+          <t>-66352</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>-232</t>
+          <t>-232373</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>81249</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>68282</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>95213</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>148543</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>88897</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47520</t>
         </is>
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>-33</t>
+          <t>-32540</t>
         </is>
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33719</t>
         </is>
       </c>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>116898</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>236288</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>184151</t>
         </is>
       </c>
       <c r="AZ15" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>326594</t>
         </is>
       </c>
     </row>
@@ -3755,257 +3755,257 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-8214</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>-13562</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-111</t>
+          <t>-110519</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>29190</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-12747</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>103966</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>77499</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>252123</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31986</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>127957</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>-37</t>
+          <t>-36875</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21857</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>-71</t>
+          <t>-71163</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37845</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>79764</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28601</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>-38</t>
+          <t>-38044</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>75488</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>269535</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-16318</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10771</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>177621</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15697</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>73715</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-16976</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>169058</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>106769</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>200255</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>327077</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>520690</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>95861</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>255196</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>298983</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>248942</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>1390</t>
+          <t>1390387</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>727317</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>784220</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>171642</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>348602</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10828</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>-22317</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30520</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>252537</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11887</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
         <is>
-          <t>-45</t>
+          <t>-44912</t>
         </is>
       </c>
       <c r="AU16" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>37219</t>
         </is>
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>411663</t>
         </is>
       </c>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>17135</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3650</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
         <is>
-          <t>-135</t>
+          <t>-134849</t>
         </is>
       </c>
       <c r="AZ16" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38529</t>
         </is>
       </c>
     </row>
@@ -4017,257 +4017,257 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35585</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>18117</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>49152</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>94305</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>38360</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6251</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>26279</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12844</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>167006</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37584</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>265053</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>303594</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>348896</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>136458</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>445299</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>292244</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>636430</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>722</t>
+          <t>721602</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>593387</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>472509</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>1421</t>
+          <t>1421284</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>1254</t>
+          <t>1253543</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>608675</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>1071</t>
+          <t>1070835</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2431</t>
+          <t>2430819</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>390313</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>742</t>
+          <t>742487</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>636584</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>849</t>
+          <t>848680</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>594577</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>744</t>
+          <t>743621</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>899</t>
+          <t>899436</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>1204</t>
+          <t>1204317</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1319</t>
+          <t>1318510</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>1208</t>
+          <t>1208092</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>1825</t>
+          <t>1825218</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>1117</t>
+          <t>1116884</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>7436</t>
+          <t>7436486</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>1892</t>
+          <t>1891589</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>1929963</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>1759</t>
+          <t>1759002</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>2336</t>
+          <t>2335765</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>2766</t>
+          <t>2765634</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>1297</t>
+          <t>1297356</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>1495</t>
+          <t>1495256</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>1066</t>
+          <t>1065881</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>2111</t>
+          <t>2110711</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>2639</t>
+          <t>2638555</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>3745</t>
+          <t>3744662</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>1931</t>
+          <t>1930673</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>1921</t>
+          <t>1921005</t>
         </is>
       </c>
     </row>
@@ -4279,257 +4279,257 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2974</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3751</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7549</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>141</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10943</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1833</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>7164</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>25006</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>218061</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14831</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16885</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>49322</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10753</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2675</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3963</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>37425</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>188252</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>515127</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>55880</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>29467</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>72028</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>122868</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>164424</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>204911</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>190410</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>92103</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>173958</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>87715</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>229096</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>143775</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>203307</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>378581</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>480127</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>529851</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>932</t>
+          <t>931724</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>666550</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>532791</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>326203</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>568034</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>678</t>
+          <t>677855</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>861</t>
+          <t>860980</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>958408</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>593787</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>802</t>
+          <t>801717</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>895</t>
+          <t>894549</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>841349</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>911</t>
+          <t>910868</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>1112</t>
+          <t>1112323</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>1318</t>
+          <t>1317607</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>1058</t>
+          <t>1057916</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>873</t>
+          <t>873475</t>
         </is>
       </c>
     </row>
@@ -4541,257 +4541,257 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32611</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>14366</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41603</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>94163</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>27417</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4418</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>19115</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-12162</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-51</t>
+          <t>-51055</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22753</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>248168</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>254272</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>338143</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>133783</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>441336</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>254819</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>448178</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>206475</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>537507</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>443042</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>1349256</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>1131</t>
+          <t>1130675</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>444251</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>866</t>
+          <t>865924</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2240</t>
+          <t>2240409</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>298210</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>568529</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>548869</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>619584</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>450802</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>540315</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>520855</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>724190</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>788659</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>276368</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>1159</t>
+          <t>1158668</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>584093</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>7110</t>
+          <t>7110283</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>1324</t>
+          <t>1323555</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>1252</t>
+          <t>1252108</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>898022</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>1377</t>
+          <t>1377357</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>2172</t>
+          <t>2171847</t>
         </is>
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>495639</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>600707</t>
         </is>
       </c>
       <c r="AU19" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>224532</t>
         </is>
       </c>
       <c r="AV19" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>1199843</t>
         </is>
       </c>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>1526</t>
+          <t>1526232</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>2427</t>
+          <t>2427055</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr">
         <is>
-          <t>873</t>
+          <t>872757</t>
         </is>
       </c>
       <c r="AZ19" t="inlineStr">
         <is>
-          <t>1048</t>
+          <t>1047530</t>
         </is>
       </c>
     </row>
@@ -4803,63 +4803,63 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3724</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12016</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>902</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>260</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3542</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3357</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1814</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4134</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>347</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>166273</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
@@ -4867,25 +4867,25 @@
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>410</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>568</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>53000</t>
         </is>
       </c>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>846</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr"/>
@@ -4898,7 +4898,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2635</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr"/>
@@ -4906,31 +4906,31 @@
       <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2536</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2477</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr"/>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2476</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr"/>
       <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9654</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3147</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr"/>
@@ -4938,7 +4938,7 @@
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3147</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -4946,18 +4946,18 @@
       <c r="AV20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3147</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9654</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
       <c r="AZ20" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8857</t>
         </is>
       </c>
     </row>
@@ -4969,257 +4969,257 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>196790</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>504861</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>557347</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>561249</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>665373</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>720838</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>775808</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>959</t>
+          <t>959227</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1228</t>
+          <t>1227690</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1044</t>
+          <t>1043695</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>1093</t>
+          <t>1093497</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>1530</t>
+          <t>1529751</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2026242</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1283</t>
+          <t>1282812</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>1479</t>
+          <t>1478941</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>1943</t>
+          <t>1942787</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>1883</t>
+          <t>1883345</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>1797</t>
+          <t>1797024</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>2241</t>
+          <t>2241121</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>2281</t>
+          <t>2280882</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>2576</t>
+          <t>2576067</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>2389</t>
+          <t>2388778</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2299904</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>3104</t>
+          <t>3104244</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2841</t>
+          <t>2841032</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2976</t>
+          <t>2975846</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>3044</t>
+          <t>3043733</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>3122</t>
+          <t>3122220</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>3192</t>
+          <t>3192210</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>3283</t>
+          <t>3282646</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>2555</t>
+          <t>2555273</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>2787</t>
+          <t>2786691</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>2767</t>
+          <t>2767411</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>2592</t>
+          <t>2592035</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>2817</t>
+          <t>2816551</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>2456</t>
+          <t>2455568</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>2855</t>
+          <t>2854783</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>2991</t>
+          <t>2990976</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>3524</t>
+          <t>3524036</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>3536</t>
+          <t>3536223</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>4065</t>
+          <t>4064846</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>3423</t>
+          <t>3422919</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>3679</t>
+          <t>3678666</t>
         </is>
       </c>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>3195</t>
+          <t>3194749</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr">
         <is>
-          <t>3615</t>
+          <t>3615483</t>
         </is>
       </c>
       <c r="AU21" t="inlineStr">
         <is>
-          <t>3467</t>
+          <t>3466567</t>
         </is>
       </c>
       <c r="AV21" t="inlineStr">
         <is>
-          <t>3331</t>
+          <t>3331115</t>
         </is>
       </c>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>3751</t>
+          <t>3750960</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>3791</t>
+          <t>3791098</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr">
         <is>
-          <t>3874</t>
+          <t>3873901</t>
         </is>
       </c>
       <c r="AZ21" t="inlineStr">
         <is>
-          <t>4206</t>
+          <t>4206364</t>
         </is>
       </c>
     </row>
@@ -5231,257 +5231,257 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>391361</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>348849</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>374717</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>355516</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>493137</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>643767</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>661869</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>558626</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>689787</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1209</t>
+          <t>1208770</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>1630</t>
+          <t>1629662</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>1975589</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>1592</t>
+          <t>1591912</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>2356185</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>2529</t>
+          <t>2529461</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2233</t>
+          <t>2233296</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>3148</t>
+          <t>3148137</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>3609</t>
+          <t>3608995</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>3650</t>
+          <t>3650064</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>3997</t>
+          <t>3996570</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>4873</t>
+          <t>4872728</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>5271</t>
+          <t>5271292</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>4551</t>
+          <t>4550690</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>4497</t>
+          <t>4497287</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>6132</t>
+          <t>6132434</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>4987</t>
+          <t>4986947</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>5826</t>
+          <t>5825691</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>6379</t>
+          <t>6379072</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>6830</t>
+          <t>6829785</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>6623</t>
+          <t>6622967</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>6393</t>
+          <t>6393197</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>6685</t>
+          <t>6684835</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>7940</t>
+          <t>7940093</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>8459</t>
+          <t>8459441</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>9230</t>
+          <t>9230395</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>7677</t>
+          <t>7677041</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>8216</t>
+          <t>8215661</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>15279</t>
+          <t>15278619</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>9762</t>
+          <t>9762453</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>9937</t>
+          <t>9936915</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>8703</t>
+          <t>8702962</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>8936</t>
+          <t>8935834</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>9103</t>
+          <t>9102840</t>
         </is>
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>8067</t>
+          <t>8067282</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
         <is>
-          <t>9726</t>
+          <t>9725657</t>
         </is>
       </c>
       <c r="AU22" t="inlineStr">
         <is>
-          <t>9944</t>
+          <t>9944045</t>
         </is>
       </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>12797</t>
+          <t>12796880</t>
         </is>
       </c>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>11312</t>
+          <t>11312047</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>13853</t>
+          <t>13853307</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr">
         <is>
-          <t>11692</t>
+          <t>11692187</t>
         </is>
       </c>
       <c r="AZ22" t="inlineStr">
         <is>
-          <t>12130</t>
+          <t>12130204</t>
         </is>
       </c>
     </row>
@@ -5493,257 +5493,257 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22612</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>67315</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>312843</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>212404</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>212649</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>442587</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>128741</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>-53</t>
+          <t>-53416</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>427534</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>805</t>
+          <t>805408</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>861</t>
+          <t>860743</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>759</t>
+          <t>758682</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>824</t>
+          <t>824236</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>1317</t>
+          <t>1317198</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>1941</t>
+          <t>1940970</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>663</t>
+          <t>663485</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>1338</t>
+          <t>1338410</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>1685</t>
+          <t>1684885</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>2310</t>
+          <t>2310335</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>1625</t>
+          <t>1625018</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>2382175</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>2652</t>
+          <t>2652317</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>2794</t>
+          <t>2794179</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2748</t>
+          <t>2747838</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>3059</t>
+          <t>3058897</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>3204</t>
+          <t>3204410</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>3266</t>
+          <t>3265616</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>3523</t>
+          <t>3522666</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>3695</t>
+          <t>3694933</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>3712</t>
+          <t>3711575</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>2720</t>
+          <t>2719718</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>3872</t>
+          <t>3872191</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>4318</t>
+          <t>4318155</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>4453</t>
+          <t>4453265</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>4199</t>
+          <t>4199237</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>4979</t>
+          <t>4978670</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>5371</t>
+          <t>5370906</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>4132</t>
+          <t>4132443</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>5586</t>
+          <t>5585723</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>5423</t>
+          <t>5422915</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>7320</t>
+          <t>7320145</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>6386</t>
+          <t>6386179</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>6490</t>
+          <t>6490301</t>
         </is>
       </c>
       <c r="AS23" t="inlineStr">
         <is>
-          <t>4950</t>
+          <t>4950150</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr">
         <is>
-          <t>7018</t>
+          <t>7017806</t>
         </is>
       </c>
       <c r="AU23" t="inlineStr">
         <is>
-          <t>5762</t>
+          <t>5762193</t>
         </is>
       </c>
       <c r="AV23" t="inlineStr">
         <is>
-          <t>8313</t>
+          <t>8313437</t>
         </is>
       </c>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>6125</t>
+          <t>6125121</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>7702</t>
+          <t>7701873</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr">
         <is>
-          <t>6677</t>
+          <t>6677305</t>
         </is>
       </c>
       <c r="AZ23" t="inlineStr">
         <is>
-          <t>5916</t>
+          <t>5915679</t>
         </is>
       </c>
     </row>
@@ -5755,257 +5755,257 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>368748</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>281534</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>61874</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>143112</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>280488</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>201180</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>533128</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>612042</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>262253</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>403362</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>768919</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>1217</t>
+          <t>1216907</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>767676</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1039</t>
+          <t>1038987</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>588491</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>1570</t>
+          <t>1569811</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>1810</t>
+          <t>1809727</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>1924</t>
+          <t>1924110</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>1340</t>
+          <t>1339729</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>2372</t>
+          <t>2371552</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>2491</t>
+          <t>2490553</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>2619</t>
+          <t>2618975</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>1757</t>
+          <t>1756511</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>1749</t>
+          <t>1749450</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>3074</t>
+          <t>3073537</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>1783</t>
+          <t>1782537</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>2560</t>
+          <t>2560075</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>2856</t>
+          <t>2856406</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>3135</t>
+          <t>3134852</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>2911</t>
+          <t>2911392</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>3673</t>
+          <t>3673479</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>2813</t>
+          <t>2812644</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>3622</t>
+          <t>3621938</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>4006</t>
+          <t>4006176</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>5031</t>
+          <t>5031158</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>2698</t>
+          <t>2698371</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>2845</t>
+          <t>2844755</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>11146</t>
+          <t>11146176</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>4177</t>
+          <t>4176730</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>4514</t>
+          <t>4514000</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>1383</t>
+          <t>1382817</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>2550</t>
+          <t>2549655</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>2613</t>
+          <t>2612539</t>
         </is>
       </c>
       <c r="AS24" t="inlineStr">
         <is>
-          <t>3117</t>
+          <t>3117132</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr">
         <is>
-          <t>2708</t>
+          <t>2707851</t>
         </is>
       </c>
       <c r="AU24" t="inlineStr">
         <is>
-          <t>4182</t>
+          <t>4181852</t>
         </is>
       </c>
       <c r="AV24" t="inlineStr">
         <is>
-          <t>4483</t>
+          <t>4483443</t>
         </is>
       </c>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>5187</t>
+          <t>5186926</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>6151</t>
+          <t>6151434</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr">
         <is>
-          <t>5015</t>
+          <t>5014882</t>
         </is>
       </c>
       <c r="AZ24" t="inlineStr">
         <is>
-          <t>6215</t>
+          <t>6214525</t>
         </is>
       </c>
     </row>
@@ -6017,257 +6017,257 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>97243</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>79847</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12469</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>96576</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>44030</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>116741</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>135108</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>79093</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>89912</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>143690</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>182615</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>271017</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>170073</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>122494</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>202632</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>365191</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>386803</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>270863</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>477010</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>552939</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>529683</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>341491</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>350299</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>618114</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>360613</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>511244</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>573805</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>620576</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>597397</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>722</t>
+          <t>722459</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>561130</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>724709</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>804366</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>1015</t>
+          <t>1014795</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>537551</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>573226</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>2229</t>
+          <t>2229353</t>
         </is>
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>853</t>
+          <t>852655</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>971570</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>852</t>
+          <t>851996</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>889</t>
+          <t>889286</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>847</t>
+          <t>846530</t>
         </is>
       </c>
       <c r="AS25" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>688394</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>559961</t>
         </is>
       </c>
       <c r="AU25" t="inlineStr">
         <is>
-          <t>1043</t>
+          <t>1042770</t>
         </is>
       </c>
       <c r="AV25" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>780526</t>
         </is>
       </c>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>1026</t>
+          <t>1025640</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>1113</t>
+          <t>1113274</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr">
         <is>
-          <t>1079</t>
+          <t>1078750</t>
         </is>
       </c>
       <c r="AZ25" t="inlineStr">
         <is>
-          <t>1249</t>
+          <t>1249088</t>
         </is>
       </c>
     </row>
@@ -6281,7 +6281,7 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -6291,22 +6291,22 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-92</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-165</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-174</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>75</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
@@ -6324,7 +6324,7 @@
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>41</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -6347,57 +6347,57 @@
       <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>-610</t>
+          <t>-609627</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10650</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>-686</t>
+          <t>-686222</t>
         </is>
       </c>
       <c r="AS26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1060</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36729</t>
         </is>
       </c>
       <c r="AU26" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-2801</t>
         </is>
       </c>
       <c r="AV26" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>70232</t>
         </is>
       </c>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-2974</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-1362</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1178</t>
         </is>
       </c>
       <c r="AZ26" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27941</t>
         </is>
       </c>
     </row>
@@ -6409,257 +6409,257 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>97243</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>79847</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4201</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12469</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>96576</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>44030</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>116741</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>135108</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>79001</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>89747</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>143516</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>182690</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>271017</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>170073</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>122494</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>202632</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>365191</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>386803</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>270863</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>477010</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>552939</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>529683</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>341491</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>350299</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>618114</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>360654</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>511244</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>573805</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>620576</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>597397</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>722</t>
+          <t>722459</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>561130</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>724709</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>804366</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>1015</t>
+          <t>1014795</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>537551</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>573226</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>2229</t>
+          <t>2229353</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>853</t>
+          <t>852655</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>971570</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>242369</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>899936</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>160308</t>
         </is>
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>689</t>
+          <t>689454</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>596690</t>
         </is>
       </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>1040</t>
+          <t>1039969</t>
         </is>
       </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>850758</t>
         </is>
       </c>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>1023</t>
+          <t>1022666</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>1112</t>
+          <t>1111912</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr">
         <is>
-          <t>1080</t>
+          <t>1079928</t>
         </is>
       </c>
       <c r="AZ27" t="inlineStr">
         <is>
-          <t>1277</t>
+          <t>1277029</t>
         </is>
       </c>
     </row>
@@ -6671,257 +6671,257 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>271506</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>201687</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>57672</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>130643</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>183912</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>157150</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>416387</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>476934</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>183252</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>313615</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>625403</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>1034</t>
+          <t>1034217</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>496659</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>869</t>
+          <t>868914</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>465997</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>1367</t>
+          <t>1367179</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>1445</t>
+          <t>1444536</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>1537</t>
+          <t>1537307</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>1069</t>
+          <t>1068866</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>1894542</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>1938</t>
+          <t>1937614</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>2089</t>
+          <t>2089292</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>1415</t>
+          <t>1415020</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>1399</t>
+          <t>1399150</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>2455423</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>1422</t>
+          <t>1421883</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>2049</t>
+          <t>2048831</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>2283</t>
+          <t>2282601</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>2514</t>
+          <t>2514276</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>2314</t>
+          <t>2313995</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>2951</t>
+          <t>2951020</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>2252</t>
+          <t>2251514</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>2897</t>
+          <t>2897229</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>3202</t>
+          <t>3201810</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>4016</t>
+          <t>4016363</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>2161</t>
+          <t>2160820</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>2272</t>
+          <t>2271529</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>8917</t>
+          <t>8916823</t>
         </is>
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>3324</t>
+          <t>3324075</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>3542</t>
+          <t>3542430</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>1140</t>
+          <t>1140448</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>1650</t>
+          <t>1649719</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>2452</t>
+          <t>2452231</t>
         </is>
       </c>
       <c r="AS28" t="inlineStr">
         <is>
-          <t>2428</t>
+          <t>2427678</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr">
         <is>
-          <t>2111</t>
+          <t>2111161</t>
         </is>
       </c>
       <c r="AU28" t="inlineStr">
         <is>
-          <t>3142</t>
+          <t>3141883</t>
         </is>
       </c>
       <c r="AV28" t="inlineStr">
         <is>
-          <t>3633</t>
+          <t>3632685</t>
         </is>
       </c>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>4164</t>
+          <t>4164260</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>5040</t>
+          <t>5039522</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr">
         <is>
-          <t>3935</t>
+          <t>3934954</t>
         </is>
       </c>
       <c r="AZ28" t="inlineStr">
         <is>
-          <t>4937</t>
+          <t>4937496</t>
         </is>
       </c>
     </row>
@@ -6973,77 +6973,77 @@
       <c r="AK29" t="inlineStr"/>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>-157</t>
+          <t>-157362</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>245297</t>
         </is>
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>-184</t>
+          <t>-184131</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>-187</t>
+          <t>-187453</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>-1125</t>
+          <t>-1125171</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>-886</t>
+          <t>-886235</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>-610</t>
+          <t>-609562</t>
         </is>
       </c>
       <c r="AS29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2932</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>81081</t>
         </is>
       </c>
       <c r="AU29" t="inlineStr">
         <is>
-          <t>-425</t>
+          <t>-424814</t>
         </is>
       </c>
       <c r="AV29" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>74299</t>
         </is>
       </c>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>136428</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>422102</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>40045</t>
         </is>
       </c>
       <c r="AZ29" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>75096</t>
         </is>
       </c>
     </row>
@@ -7055,257 +7055,257 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>271506</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>201687</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>57672</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>130643</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>183912</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>157150</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>416387</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>476934</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>183252</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>313615</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>625403</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>1034</t>
+          <t>1034217</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>496659</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>869</t>
+          <t>868914</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>465997</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>1367</t>
+          <t>1367179</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>1445</t>
+          <t>1444536</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>1537</t>
+          <t>1537307</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>1069</t>
+          <t>1068866</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>1894542</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>1938</t>
+          <t>1937614</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>2089</t>
+          <t>2089292</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>1415</t>
+          <t>1415020</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>1399</t>
+          <t>1399150</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>2455423</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>1422</t>
+          <t>1421883</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>2049</t>
+          <t>2048831</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>2283</t>
+          <t>2282601</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>2514</t>
+          <t>2514276</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>2314</t>
+          <t>2313995</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>2951</t>
+          <t>2951020</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>2252</t>
+          <t>2251514</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>2897</t>
+          <t>2897229</t>
         </is>
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>3202</t>
+          <t>3201810</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>4016</t>
+          <t>4016363</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>2161</t>
+          <t>2160820</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>2428891</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>8672</t>
+          <t>8671526</t>
         </is>
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>3508</t>
+          <t>3508206</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>3730</t>
+          <t>3729883</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>2266</t>
+          <t>2265619</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>2536</t>
+          <t>2535954</t>
         </is>
       </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>3062</t>
+          <t>3061793</t>
         </is>
       </c>
       <c r="AS30" t="inlineStr">
         <is>
-          <t>2425</t>
+          <t>2424746</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr">
         <is>
-          <t>2030</t>
+          <t>2030080</t>
         </is>
       </c>
       <c r="AU30" t="inlineStr">
         <is>
-          <t>3567</t>
+          <t>3566697</t>
         </is>
       </c>
       <c r="AV30" t="inlineStr">
         <is>
-          <t>3558</t>
+          <t>3558386</t>
         </is>
       </c>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>4028</t>
+          <t>4027832</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>4617</t>
+          <t>4617420</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr">
         <is>
-          <t>3895</t>
+          <t>3894909</t>
         </is>
       </c>
       <c r="AZ30" t="inlineStr">
         <is>
-          <t>4862</t>
+          <t>4862400</t>
         </is>
       </c>
     </row>
